--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.234</v>
+        <v>0.417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.286</v>
+        <v>0.134</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22</v>
+        <v>-67.87</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.178</v>
+        <v>0.482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.21</v>
+        <v>0.202</v>
       </c>
       <c r="D5" t="n">
-        <v>17.98</v>
+        <v>-58.09</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.201</v>
+        <v>0.226</v>
       </c>
       <c r="C6" t="n">
-        <v>0.209</v>
+        <v>0.146</v>
       </c>
       <c r="D6" t="n">
-        <v>3.98</v>
+        <v>-35.4</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.132877187454142</v>
+        <v>2.07615546847228</v>
       </c>
       <c r="C4" t="n">
-        <v>1.808497844031081</v>
+        <v>1.780969782848842</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.21</v>
+        <v>-14.22</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2013177920527199</v>
+        <v>0.1688290487772266</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2346787838853625</v>
+        <v>0.1884064555027848</v>
       </c>
       <c r="G4" t="n">
-        <v>16.57</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="C5" t="n">
-        <v>10.742</v>
+        <v>10.657</v>
       </c>
       <c r="D5" t="n">
         <v>-74.95999999999999</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.878207737246369</v>
+        <v>9.655187898151432</v>
       </c>
       <c r="C6" t="n">
-        <v>18.95648727537905</v>
+        <v>18.55010377348528</v>
       </c>
       <c r="D6" t="n">
-        <v>113.52</v>
+        <v>92.13</v>
       </c>
       <c r="E6" t="n">
-        <v>1.362655824822436</v>
+        <v>0.5450906734011155</v>
       </c>
       <c r="F6" t="n">
-        <v>3.681449526780035</v>
+        <v>2.204912922098511</v>
       </c>
       <c r="G6" t="n">
-        <v>170.17</v>
+        <v>304.5</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.417</v>
+        <v>0.372</v>
       </c>
       <c r="C4" t="n">
-        <v>0.134</v>
+        <v>0.393</v>
       </c>
       <c r="D4" t="n">
-        <v>-67.87</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.482</v>
+        <v>0.367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202</v>
+        <v>0.443</v>
       </c>
       <c r="D5" t="n">
-        <v>-58.09</v>
+        <v>20.71</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.226</v>
+        <v>0.292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.146</v>
+        <v>0.289</v>
       </c>
       <c r="D6" t="n">
-        <v>-35.4</v>
+        <v>-1.03</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.07615546847228</v>
+        <v>2.251943186740391</v>
       </c>
       <c r="C4" t="n">
-        <v>1.780969782848842</v>
+        <v>1.951116001815535</v>
       </c>
       <c r="D4" t="n">
-        <v>-14.22</v>
+        <v>-13.36</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1688290487772266</v>
+        <v>0.2972553580007695</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1884064555027848</v>
+        <v>0.2944173565360797</v>
       </c>
       <c r="G4" t="n">
-        <v>11.6</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="C5" t="n">
-        <v>10.657</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-74.95999999999999</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.655187898151432</v>
+        <v>9.444364343537451</v>
       </c>
       <c r="C6" t="n">
-        <v>18.55010377348528</v>
+        <v>18.29849862241543</v>
       </c>
       <c r="D6" t="n">
-        <v>92.13</v>
+        <v>93.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5450906734011155</v>
+        <v>1.206977244430302</v>
       </c>
       <c r="F6" t="n">
-        <v>2.204912922098511</v>
+        <v>2.483637527371938</v>
       </c>
       <c r="G6" t="n">
-        <v>304.5</v>
+        <v>105.77</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-qat/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
